--- a/assets/excel/2022_7-2-2.xlsx
+++ b/assets/excel/2022_7-2-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\LSN\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74CF2D-71C4-4393-842F-22305AB6ACEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{A4042D82-6A2D-4C0C-9CCD-29827289911F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,12 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2022</t>
-  </si>
-  <si>
-    <t>Indikator 1.1.1: Bezugspersonen in Privathaushalten mit selbst bewohntem Wohneigentum sowie Eigentümerquoten 2006 – 2018 nach Migrationsstatus und Geschlecht</t>
-  </si>
-  <si>
-    <t>Tabelle 1.1.1: Bezugspersonen in Privathaushalten mit selbst bewohntem Wohneigentum sowie Eigentümerquoten 2006 – 2018 nach Migrationsstatus und Geschlecht</t>
   </si>
   <si>
     <t>Land</t>
@@ -143,15 +136,22 @@
   <si>
     <t>Bezugspersonen mit selbstgenutzem Wohneigentum</t>
   </si>
+  <si>
+    <t>Indikator 7.2.2: Bezugspersonen in Privathaushalten mit selbst bewohntem Wohneigentum sowie Eigentümerquoten 2006 – 2018 nach Migrationsstatus und Geschlecht</t>
+  </si>
+  <si>
+    <t>Tabelle 7.2.2: Bezugspersonen in Privathaushalten mit selbst bewohntem Wohneigentum sowie Eigentümerquoten 2006 – 2018 nach Migrationsstatus und Geschlecht</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="###\ ###\ ###"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,11 +332,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2 2 3" xfId="2" xr:uid="{7C53EE11-3D53-4751-994C-441AF6E3D87E}"/>
+    <cellStyle name="Standard 2 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,15 +650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39761984-F595-45D4-9F7F-EFC3DC03B3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:Q45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:G7"/>
+      <selection activeCell="E11" sqref="E11:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1107,83 +1110,83 @@
     <col min="16138" max="16138" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1"/>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="8.25" customHeight="1">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="8.25" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" ht="8.25" customHeight="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="8.25" customHeight="1">
       <c r="B10" s="5">
         <v>1</v>
       </c>
@@ -1212,23 +1215,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="8.25" customHeight="1">
       <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
         <v>2018</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
         <v>1855.9062169999904</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="17">
         <v>1659.0240119999867</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="17">
         <v>196.88220500000014</v>
       </c>
       <c r="H11" s="8">
@@ -1241,23 +1244,23 @@
         <v>29.055967561435793</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="8.25" customHeight="1">
       <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
         <v>2018</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="17">
         <v>1435.5941429999823</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="17">
         <v>1274.9813119999847</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="17">
         <v>160.6128310000002</v>
       </c>
       <c r="H12" s="8">
@@ -1270,23 +1273,23 @@
         <v>32.153005385892854</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="8.25" customHeight="1">
       <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="E13" s="17">
         <v>420.31207400000125</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="17">
         <v>384.04270000000116</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="17">
         <v>36.269373999999992</v>
       </c>
       <c r="H13" s="8">
@@ -1299,23 +1302,23 @@
         <v>20.368065780946569</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="8.25" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
         <v>2014</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17">
         <v>1918.1255820000035</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="17">
         <v>1757.135139000005</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="17">
         <v>160.9904429999998</v>
       </c>
       <c r="H14" s="8">
@@ -1328,23 +1331,23 @@
         <v>33.119676043184079</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="8.25" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7">
         <v>2014</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="17">
         <v>1488.4308510000044</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="17">
         <v>1355.3379610000009</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="17">
         <v>133.09288999999987</v>
       </c>
       <c r="H15" s="8">
@@ -1357,23 +1360,23 @@
         <v>38.4608331344687</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="8.25" customHeight="1">
       <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2014</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6">
-        <v>2014</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="E16" s="17">
         <v>429.69473100000005</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="17">
         <v>401.7971779999998</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="17">
         <v>27.897553000000009</v>
       </c>
       <c r="H16" s="8">
@@ -1386,23 +1389,23 @@
         <v>19.921252735395786</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="8.25" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
         <v>2010</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17">
         <v>1938.2105640000038</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="17">
         <v>1794.1418190000065</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="17">
         <v>144.06874499999989</v>
       </c>
       <c r="H17" s="8">
@@ -1415,23 +1418,23 @@
         <v>30.651785591208984</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="8.25" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
         <v>2010</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="17">
         <v>1487.0793669999994</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="17">
         <v>1368.2075349999986</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="17">
         <v>118.87183200000001</v>
       </c>
       <c r="H18" s="8">
@@ -1444,23 +1447,23 @@
         <v>35.055101807329073</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="8.25" customHeight="1">
       <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
-        <v>2010</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="E19" s="17">
         <v>451.13119700000072</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="17">
         <v>425.93428400000079</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="17">
         <v>25.196912999999995</v>
       </c>
       <c r="H19" s="8">
@@ -1473,23 +1476,23 @@
         <v>19.246403355578501</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="8.25" customHeight="1">
       <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
         <v>2006</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17">
         <v>1773.8197899999996</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="17">
         <v>1663.630277</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="17">
         <v>110.18951299999998</v>
       </c>
       <c r="H20" s="8">
@@ -1502,23 +1505,23 @@
         <v>25.433274620501304</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="8.25" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
         <v>2006</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="17">
         <v>1412.9640009999978</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="17">
         <v>1313.993876000002</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="17">
         <v>98.970124999999967</v>
       </c>
       <c r="H21" s="8">
@@ -1531,23 +1534,23 @@
         <v>30.037852806306141</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="8.25" customHeight="1">
       <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
-        <v>2006</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="E22" s="17">
         <v>360.85578900000024</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="17">
         <v>349.63640099999992</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="17">
         <v>11.219388000000002</v>
       </c>
       <c r="H22" s="8">
@@ -1560,23 +1563,23 @@
         <v>10.812333173680489</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="8.25" customHeight="1">
       <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
         <v>2018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17">
         <v>16812.028910999765</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="17">
         <v>14967.194339999982</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="17">
         <v>1844.8345710000021</v>
       </c>
       <c r="H23" s="8">
@@ -1589,23 +1592,23 @@
         <v>22.824830962646555</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="8.25" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7">
         <v>2018</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17">
         <v>12563.723440999818</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="17">
         <v>11095.20726199992</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="17">
         <v>1468.5161790000031</v>
       </c>
       <c r="H24" s="8">
@@ -1618,23 +1621,23 @@
         <v>25.505824718473434</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="8.25" customHeight="1">
       <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
         <v>2018</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="6">
+        <v>21</v>
+      </c>
+      <c r="E25" s="17">
         <v>4248.3054699999984</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="17">
         <v>3871.9870780000283</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="17">
         <v>376.31839200000036</v>
       </c>
       <c r="H25" s="8">
@@ -1647,23 +1650,23 @@
         <v>16.185700282502076</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="8.25" customHeight="1">
       <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7">
         <v>2014</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="17">
         <v>16889.142302000058</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="17">
         <v>15370.10973700029</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="17">
         <v>1519.0325649999954</v>
       </c>
       <c r="H26" s="8">
@@ -1676,23 +1679,23 @@
         <v>26.227154161471578</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="8.25" customHeight="1">
       <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7">
         <v>2014</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="6">
+        <v>20</v>
+      </c>
+      <c r="E27" s="17">
         <v>12840.914498000131</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="17">
         <v>11590.39003900022</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="17">
         <v>1250.5244589999986</v>
       </c>
       <c r="H27" s="8">
@@ -1705,23 +1708,23 @@
         <v>30.281318132874169</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="8.25" customHeight="1">
       <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6">
+        <v>22</v>
+      </c>
+      <c r="C28" s="7">
         <v>2014</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="6">
+        <v>21</v>
+      </c>
+      <c r="E28" s="17">
         <v>4048.2278039999987</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="17">
         <v>3779.719697999999</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="17">
         <v>268.50810600000079</v>
       </c>
       <c r="H28" s="8">
@@ -1734,23 +1737,23 @@
         <v>16.154343985569465</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="8.25" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
         <v>2010</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17">
         <v>16971.784138999905</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="17">
         <v>15581.152609000041</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="17">
         <v>1390.6315300000063</v>
       </c>
       <c r="H29" s="8">
@@ -1763,23 +1766,23 @@
         <v>25.399873840814209</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="8.25" customHeight="1">
       <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
         <v>2010</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="6">
+        <v>20</v>
+      </c>
+      <c r="E30" s="17">
         <v>13079.190073000178</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="17">
         <v>11910.333818000159</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="17">
         <v>1168.8562550000067</v>
       </c>
       <c r="H30" s="8">
@@ -1792,23 +1795,23 @@
         <v>29.196822985809494</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="8.25" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="6">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7">
         <v>2010</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6">
+        <v>21</v>
+      </c>
+      <c r="E31" s="17">
         <v>3892.5940659999806</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="17">
         <v>3670.8187909999788</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="17">
         <v>221.77527500000065</v>
       </c>
       <c r="H31" s="8">
@@ -1821,23 +1824,23 @@
         <v>15.070488315419315</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="8.25" customHeight="1">
       <c r="B32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="6">
+        <v>22</v>
+      </c>
+      <c r="C32" s="7">
         <v>2006</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="17">
         <v>15727.373324999724</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="17">
         <v>14583.315411999753</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="17">
         <v>1144.0579129999956</v>
       </c>
       <c r="H32" s="8">
@@ -1850,23 +1853,23 @@
         <v>21.445782655087893</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" ht="8.25" customHeight="1">
       <c r="B33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="6">
+        <v>22</v>
+      </c>
+      <c r="C33" s="7">
         <v>2006</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="6">
+        <v>20</v>
+      </c>
+      <c r="E33" s="17">
         <v>12316.197757999847</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="17">
         <v>11326.162868999863</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="17">
         <v>990.03488899999707</v>
       </c>
       <c r="H33" s="8">
@@ -1879,23 +1882,23 @@
         <v>24.652278009102563</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" ht="8.25" customHeight="1">
       <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="6">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
         <v>2006</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="6">
+        <v>21</v>
+      </c>
+      <c r="E34" s="17">
         <v>3411.1755670000402</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="17">
         <v>3257.152543000037</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="17">
         <v>154.02302399999991</v>
       </c>
       <c r="H34" s="8">
@@ -1908,12 +1911,12 @@
         <v>11.680315964953527</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:17" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1931,9 +1934,9 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1951,35 +1954,35 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" s="11" customFormat="1" ht="10.5">
       <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="8.25" customHeight="1"/>
+    <row r="40" spans="2:17" ht="8.25" customHeight="1">
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="11" customFormat="1" ht="10.5">
+      <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="43" spans="2:17" s="11" customFormat="1" ht="10.5">
+      <c r="B43" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="6" t="s">
+    <row r="44" spans="2:17" s="11" customFormat="1" ht="10.5">
+      <c r="B44" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="6" t="s">
+    <row r="45" spans="2:17" s="11" customFormat="1" ht="10.5">
+      <c r="B45" s="12" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1995,8 +1998,9 @@
     <mergeCell ref="H9:J9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" xr:uid="{CF147682-1C37-4902-987B-4D9E516DF99C}"/>
+    <hyperlink ref="B45" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>